--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://langcode.sharepoint.com/sites/msteams_cc19a0/Shared Documents/4. 고객/이마트24/PoC 데이터/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dalsa\OneDrive\Desktop\study\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_586DC67BCD07B1FBCA6F460C0790D2A81271167E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B21CF968-99E5-4C74-84CF-C909C652C1ED}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFE36DB-27FD-4E44-8770-1E7DC9BED07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="5715" windowWidth="25125" windowHeight="26685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37212" yWindow="7644" windowWidth="23004" windowHeight="16416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="예상 시나리오" sheetId="2" r:id="rId1"/>
@@ -317,12 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6월 2주차 추가행사 안내에서 찾은 정보입니다. 
-아임이)트레저솔티카라멜팝콘, 아임이)트레저피넛버터팝콘, 아임이)트레저트리플믹스팝콘 세 종은 교차 1+1 적용이 가능 상품입니다. 
-행사 기간은 6/8부터 6/30까지 입니다. 감사합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>택배로 서비스 행사 알려줘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,6 +552,11 @@
       <t xml:space="preserve"> 식약처 방문후 스무디킹 담당SV 공유
 자세한 내용은 "등록일자"에 등록된 "파일명"을 참고하여 주세요. 감사합니다.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">6월 2주차 추가행사 안내에서 찾은 정보입니다. 
+아임이)트레저솔티카라멜팝콘, 아임이)트레저피넛버터팝콘, 아임이)트레저트리플믹스팝콘 세 종은 교차 1+1 적용이 가능 상품입니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1027,22 +1026,22 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1"/>
-    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
+    <col min="2" max="2" width="13.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.08984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="44.7265625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1073,10 +1072,10 @@
         <v>13</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1130,7 +1129,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="175.5">
+    <row r="6" spans="1:7" ht="182">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="63.75" customHeight="1">
@@ -1161,7 +1160,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="72" customHeight="1">
@@ -1175,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="4"/>
     </row>
@@ -1190,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -1199,7 +1198,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
@@ -1239,7 +1238,7 @@
       </c>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="40.5">
+    <row r="13" spans="1:7" ht="42">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1247,13 +1246,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="69" customHeight="1">
@@ -1285,7 +1284,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="42.75" customHeight="1">
@@ -1299,10 +1298,10 @@
         <v>37</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="101.25" customHeight="1">
@@ -1316,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -1328,10 +1327,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -1343,10 +1342,10 @@
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -1364,10 +1363,10 @@
         <v>42</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="351">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="364">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>40</v>
@@ -1384,7 +1383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="177">
+    <row r="22" spans="1:5" ht="180.5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1395,13 +1394,13 @@
         <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="148.5">
+    <row r="23" spans="1:5" ht="154">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1415,7 +1414,7 @@
         <v>30</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="127.5" customHeight="1">
@@ -1426,13 +1425,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="126" customHeight="1">
@@ -1443,13 +1442,13 @@
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1461,15 +1460,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="fef0655d-ab3c-44f3-a840-6b86aca4aacd" xsi:nil="true"/>
@@ -1478,6 +1468,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1724,20 +1723,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F9DE41-F542-493A-912B-FD90EBDE171A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95C05DAF-CBA1-4F64-BA49-E34B7448885D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="fef0655d-ab3c-44f3-a840-6b86aca4aacd"/>
     <ds:schemaRef ds:uri="a5b945b7-9df2-428d-bedb-156f85e3cd79"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21F9DE41-F542-493A-912B-FD90EBDE171A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
